--- a/ClosedXML_Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
@@ -22,7 +22,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -32,13 +32,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML_Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
@@ -161,7 +161,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -444,7 +444,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
@@ -49,37 +49,31 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFE0FFFF"/>
-        <x:bgColor rgb="FFE0FFFF"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFFA500"/>
-        <x:bgColor rgb="FFFFA500"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF808080"/>
-        <x:bgColor rgb="FF808080"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFFC0CB"/>
-        <x:bgColor rgb="FFFFC0CB"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFA52A2A"/>
-        <x:bgColor rgb="FFA52A2A"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF0000FF"/>
-        <x:bgColor rgb="FF0000FF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
@@ -63,17 +63,17 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF0000FF"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFFC0CB"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFA52A2A"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF0000FF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -455,24 +455,24 @@
     <x:col min="6" max="16384" width="5.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:5" s="6" customFormat="1">
+    <x:row r="2" spans="1:5" s="4" customFormat="1">
       <x:c r="C2" s="2" t="s"/>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:5" s="6" customFormat="1">
+    <x:row r="3" spans="1:5" s="4" customFormat="1">
       <x:c r="C3" s="2" t="s"/>
       <x:c r="D3" s="2" t="s"/>
       <x:c r="E3" s="3" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:5" s="4" customFormat="1">
-      <x:c r="C5" s="4" t="s"/>
-      <x:c r="D5" s="4" t="s"/>
+    <x:row r="5" spans="1:5" s="5" customFormat="1">
+      <x:c r="C5" s="5" t="s"/>
+      <x:c r="D5" s="5" t="s"/>
       <x:c r="E5" s="3" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:5" s="5" customFormat="1">
-      <x:c r="C6" s="5" t="s"/>
-      <x:c r="D6" s="5" t="s"/>
+    <x:row r="6" spans="1:5" s="6" customFormat="1">
+      <x:c r="C6" s="6" t="s"/>
+      <x:c r="D6" s="6" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
   </x:sheetData>
